--- a/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
+++ b/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\TOYOTA - Celaya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE115958-B29B-4026-A368-461F9094574A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334BC38-21F0-43AA-8E4F-8EE00123843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="165" windowWidth="19950" windowHeight="10530" activeTab="5" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="19950" windowHeight="10800" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="1" r:id="rId1"/>
-    <sheet name="Abrv" sheetId="2" r:id="rId2"/>
-    <sheet name="Schemas" sheetId="3" r:id="rId3"/>
-    <sheet name="FTO Task List" sheetId="4" r:id="rId4"/>
-    <sheet name="FTO Task List - IT" sheetId="6" r:id="rId5"/>
-    <sheet name="FTO Data List" sheetId="5" r:id="rId6"/>
+    <sheet name="Agenda" sheetId="7" r:id="rId2"/>
+    <sheet name="Abrv" sheetId="2" r:id="rId3"/>
+    <sheet name="Schemas" sheetId="3" r:id="rId4"/>
+    <sheet name="FTO Task List" sheetId="4" r:id="rId5"/>
+    <sheet name="FTO Task List - IT" sheetId="6" r:id="rId6"/>
+    <sheet name="FTO Data List" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="332">
   <si>
     <t>Colaborador</t>
   </si>
@@ -661,9 +662,6 @@
     <t>greetertc@toyotacelaya.com.mx</t>
   </si>
   <si>
-    <t>Lizbeth Mendoza</t>
-  </si>
-  <si>
     <t>Diana Ramirez</t>
   </si>
   <si>
@@ -833,29 +831,15 @@
     <t>FTO Data List</t>
   </si>
   <si>
-    <t>Marlene Gonzalez</t>
-  </si>
-  <si>
-    <t>E - Enviado
-P - En Proceso
-R - Revisado</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>L - E</t>
   </si>
   <si>
-    <t>12 Abr 15:00 a 15:30</t>
-  </si>
-  <si>
     <t>Ultima Cita / Contacto</t>
   </si>
   <si>
-    <t xml:space="preserve">13 Abr 09:40 a 09:50 </t>
-  </si>
-  <si>
     <t>13 Abr 14:30 a 14:40</t>
   </si>
   <si>
@@ -874,13 +858,7 @@
     <t>05 Abr 15:30 a 16:10</t>
   </si>
   <si>
-    <t>11 Abr 10:30 a 16:00</t>
-  </si>
-  <si>
     <t>06 Abr 09:20 a 09:50</t>
-  </si>
-  <si>
-    <t>12 Abr 16:00 a 16:30</t>
   </si>
   <si>
     <t>12 Abr 18:40 a 19:00</t>
@@ -979,25 +957,10 @@
 14 Abr 16:30 a 17:00</t>
   </si>
   <si>
-    <t>13 Abr 11:50 a 13:50
-14 Abr 16:10 a 16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Abr 16:00 a 16:20 </t>
-  </si>
-  <si>
-    <t>05 Abr 10:00 a 10:30
-14 Abr 13:30 a 13:35</t>
-  </si>
-  <si>
     <t>05 Abr 13:30 a 13:30
 14 Abr 14:00 a 14:05</t>
   </si>
   <si>
-    <t>14 Abr 09:30 a 09:40
-14 Abr 15:30 a 15:50</t>
-  </si>
-  <si>
     <t>Metadatos</t>
   </si>
   <si>
@@ -1008,13 +971,407 @@
   </si>
   <si>
     <t>Productividad Telemarketing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 Abr 16:00 a 16:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">18 Abr 12:00 a </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Abr 11:50 a 13:50
+14 Abr 16:10 a 16:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">18 Abr 15:30 a </t>
+    </r>
+  </si>
+  <si>
+    <t>Ultimo Comentario</t>
+  </si>
+  <si>
+    <t>Revisamos su Proceso SOP de Ventas el cual solicite al Lider Kaisen me los Proporcione. Vimos de forma General el Tema de sus Indicadores Toyota los cuales comente que debemos revisar de forma detallada para ver que Reporta y que  Objetivos que tiene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Abr 10:30 a 16:00 
+12 Abr 15:00 a 15:30 </t>
+  </si>
+  <si>
+    <t>Marlene Gonzalez 
+Lizbeth Mendoza</t>
+  </si>
+  <si>
+    <t>Comentamos que lo de ella seria muy beve y que sera a nivel general por el tema de que ella no usa el Sistema.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Abr 16:00 a 16:20 
+18 Abr 09:50 a 09:55 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">18 Abr 17:30 a 18:15 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14 Abr 09:30 a 09:40 
+14 Abr 15:30 a 15:50 
+18 Abr 10:40 a 10:50 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">18 Abr 14:00 a </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Quedamos con su Jefa que la enviaria a la Sala de Negocios pero No llego a Cita por estar en actividades, previamente se habia fijado la Cita para las 10:00 , horario en que se aprovecho para platicar con su Jefa. Se hablo mas tarde con ella y quedamos con el compromiso de que el Jueves va a tener la relacion de las opciones que usa en el sistema asi como los archivos externos para hacer el proceso de revision a nivel de datos. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">05 Abr 10:00 a 10:30
+14 Abr 13:30 a 13:35
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18 Abr 11:30 a 11:50 
+20 Abr ( por confirmar )</t>
+    </r>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>N - No Contactado
+E - Enviado
+P - En Proceso
+R - Revisado</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Se identifico posteriormente que esta persona No esta fisicamente en la Agencia, se verificara con IT que procede para Analizar sus Requerimientos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Abr 09:40 a 09:50 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18 Abr 10:00 a 10:20</t>
+    </r>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>09:00 - 10:00</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>Abr - 18</t>
+  </si>
+  <si>
+    <t>Abr - 19</t>
+  </si>
+  <si>
+    <t>Abr - 20</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>08:10 - 09:00</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Abr - 24</t>
+  </si>
+  <si>
+    <t>Abr -25</t>
+  </si>
+  <si>
+    <t>Abr - 26</t>
+  </si>
+  <si>
+    <t>Abr - 27</t>
+  </si>
+  <si>
+    <t>Abr - 28</t>
+  </si>
+  <si>
+    <t>May - 02</t>
+  </si>
+  <si>
+    <t>May - 03</t>
+  </si>
+  <si>
+    <t>May - 04</t>
+  </si>
+  <si>
+    <t>May - 05</t>
+  </si>
+  <si>
+    <t>Liz Mendoza ( VDQI )
+13:00 a 14:30 
+Se movio por Issues Email, No Completado por detalle comentado y la urgencia en resolver el Issue para enviar Informacion de Reclamos.</t>
+  </si>
+  <si>
+    <t>Diana Ramirez
+10:00 a 12:00 
+No Completado, se especifico el alcance de la actividad y se acordo que el  Jueves se hara la revision de la primera parte en base a lo revisado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le pedi que nos reunamos para ver los temas de los Procesos Macro de las Areas que marca Toyota y le solicite me envie el del Area de Ventas.
+No Asistio a la Cita del 18 Abr a las 14:00 - </t>
+  </si>
+  <si>
+    <t>Karen Rico ( Garantias ) 
+15:30 a 17:40</t>
+  </si>
+  <si>
+    <t>Misael Galvan ( Kaisen ) 
+18:00 a 18:30 
+Se aprovecho este tiempo ya fuera de Horario normal para revisar aspectos de Documentacion Toyota, para la esquematizacion de Informacion.</t>
+  </si>
+  <si>
+    <t>Mariana Lara 
+17:30 a 18:15 
+No Asistio, comento que se le olvido y esta sola, pero que el jueves lo vemos porque mañana esta en Sn Miguel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Contreras 
+Misael Galvan
+10:30 a 11:00 </t>
+  </si>
+  <si>
+    <t>AGENDA  -  A partir del 18 Abril 2023</t>
+  </si>
+  <si>
+    <t>18:00 - 18:30</t>
+  </si>
+  <si>
+    <t>18:30 - 19:30</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Misael Galvan ( Kaisen ) 
+14:00 a 14:30 
+Se tenia cita para revisar aspectos de Documentacion Toyota ligada a los Procesos Principales. No Asistio.
+Marco Contreras ( GTE Servicio ) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14:40 a 15:00 
+Se revisaron aspectos de avance de las actividades de analisis y documentacion donde se espera que manana se hago el calendario de las areas a su cargo.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Documentar
+- Fijar Citas ( distintos usuarios )
+- Follow Ups ( distintos usuarios )
+- Revision General Marihuri Gtz. aspectos Generales y Requerimientos Toyota ( KPIs )
+- Preparar y Enviar Agenda 
+* Actividades Realizadas durante el dia en Espacios por Cancelacion o Ajuste de Agenda ( considerando tiempos de espera hasta que se determino que No se completaria la Actividad )</t>
+  </si>
+  <si>
+    <t>- Documentar 
+- Enviar Agenda Actualizada
+18:30 a 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Karen Rico ( Garantias ) 
+(10:30) 11:30 a 12:30 
+- Marco Contreras ( Servicio ) 
+10:45 - 11:30 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizbeth Mendoza ( VDQI ) 
+13:00 a 14:45 </t>
+  </si>
+  <si>
+    <t>- Documentar 
+14:45 a 15:10 
+- Marlene Gonzalez 
+16:00 a 16:20 
+( Revision Tema de UPD Datos del Cliente en Opcion de Perfil de Clientes )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaby Leones ( Atn Clientes )
+16:30 a 18:15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaby Leones ( Atn Clientes ) 
+08:30 a 10:30
+- Cancelo ayer 19:23
+- Comento que si estara 07:23
+- No Asistio en el horario que se fijo, comento que por INFO de RH que requirieron como Obligatoria.
+- Sesion a las 09:10 a 10:40  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Documentar
+- Revisar INFO Compartida
+08:15 a 09:15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Documentar 
+- Agendar 
+18:15 a 19:10 </t>
+  </si>
+  <si>
+    <t>Gina Mandujano
+( HYP ) 
+17:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Abr - 21</t>
+  </si>
+  <si>
+    <t>Not On-Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Javier Sanchez 
+( Refacciones )
+10:00 a (12:00) 10:30 
+Fijo el Jueves 27 para tener lista la INFO y poder revisar detalle de requerimientos e incidencias.
+- Marco Contreras 
+( GTE Servicio ) 
+10:30 a 11:00 
+Se hablo con el para ver seguimiento de sus Actividades y de sus Colaboradores  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Documentar 
+- Agendar Citas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liz Mendoza
+( VDQ ) 
+12:00 a 14:00 
+</t>
+  </si>
+  <si>
+    <t>Gina Mandujano
+( HYP )
+08:30 a 10:00 
+- Se inicio Documentacion conjunto explicando alcances y explorando las necesidades de INFO, son muy pocas actividades, se envio un email a la Jefa del Area para revisar el FTO Compartido con varios CTRL en Excel que son Manuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Documentar 
+- Seguimientos  ( CALL )
+14:10 a 15:30  </t>
+  </si>
+  <si>
+    <t>Carlos Magueyal 
+( Jefe Taller ) 
+12:00 a ( 14:00 )  14:10 
+- Se comenzo de manera conjunta con Documentacion 
+- Se tuvieron interrupciones (tiempo) considerables imputables  a la Operacion.</t>
+  </si>
+  <si>
+    <t>- Documentar 
+18:30 a 19_</t>
+  </si>
+  <si>
+    <t>Gaby Leones 
+( Atn Clientes ) 
+( 16:00 ) 16:30 a ( 17:30 ) 18:30 
+Asistio 30 minutos despues (ayer se le envio en la tarde Reocrdatorio de la Cita por Whats, hoy Contesto de Enterado).
+5 Minutos despues de la Hora se le envio Whats de verificacion, Respondio 4:20 que estaremos en el Centro de Negocios.
+Durante la sesion hubo interrupciones por temas de Operacion.
+Los Archivos de Trabajo de Excel presentan problemas e inconsistencias de datos y for,mulas, se hicieron notas parciales y se le reenviaron para que restrucuture un mes de trabajo y nos sirva para la documentacion de sus controles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Rico 
+( Garantias ) 
+08:30 a 11:30 </t>
+  </si>
+  <si>
+    <t>- Documentar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,8 +1461,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,6 +1628,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1264,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1417,15 +1801,93 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1434,9 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1768,35 +2227,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D791513-AAFD-400D-99BD-9246005A24E9}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="34" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="33" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1804,37 +2266,41 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>95</v>
       </c>
@@ -1844,17 +2310,18 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>13</v>
       </c>
@@ -1862,15 +2329,16 @@
         <v>14</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="33"/>
+      <c r="I6" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
@@ -1878,23 +2346,24 @@
         <v>4</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>8</v>
       </c>
@@ -1902,23 +2371,26 @@
         <v>9</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>105</v>
       </c>
@@ -1926,17 +2398,18 @@
         <v>11</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="I9" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>12</v>
       </c>
@@ -1946,11 +2419,12 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="32"/>
+      <c r="I10" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
@@ -1962,19 +2436,20 @@
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>103</v>
       </c>
@@ -1985,22 +2460,23 @@
         <v>25</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>106</v>
       </c>
@@ -2008,17 +2484,18 @@
         <v>107</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="I13" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>108</v>
       </c>
@@ -2030,13 +2507,14 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="I14" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>110</v>
       </c>
@@ -2044,17 +2522,20 @@
         <v>128</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>129</v>
       </c>
@@ -2062,17 +2543,18 @@
         <v>111</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="I16" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>132</v>
       </c>
@@ -2080,35 +2562,39 @@
         <v>112</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="I17" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="D18" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>113</v>
       </c>
@@ -2116,35 +2602,39 @@
         <v>114</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="I20" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>115</v>
       </c>
@@ -2152,17 +2642,18 @@
         <v>116</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="I21" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>117</v>
       </c>
@@ -2170,17 +2661,18 @@
         <v>118</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="I22" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>119</v>
       </c>
@@ -2188,17 +2680,18 @@
         <v>120</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="H23" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="I23" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>126</v>
       </c>
@@ -2206,20 +2699,21 @@
         <v>127</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="I24" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>153</v>
       </c>
@@ -2231,67 +2725,66 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="25" t="s">
+      <c r="I30" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
-        <v>217</v>
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>264</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>160</v>
@@ -2302,52 +2795,368 @@
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="25" t="s">
+      <c r="F31" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="25" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B29:J29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" xr:uid="{1EECCC77-7976-48F1-9167-EED137B90327}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{685079B2-926E-4DCD-9BC0-42462FACB129}"/>
-    <hyperlink ref="H14" r:id="rId3" xr:uid="{795BEBB1-FAE3-43C2-8B8C-5DF7AE33C77E}"/>
-    <hyperlink ref="H19" r:id="rId4" xr:uid="{3C74F681-A013-4997-AB53-089D432DE2AE}"/>
-    <hyperlink ref="H20" r:id="rId5" xr:uid="{799B5D9E-68ED-45D8-AAFE-E6B3D7B941F8}"/>
-    <hyperlink ref="H22" r:id="rId6" xr:uid="{702076E1-5BF4-4CBF-A727-3AD3F6A4F68E}"/>
-    <hyperlink ref="H23" r:id="rId7" xr:uid="{A860EE6D-7ED2-4CDC-8865-29C20650A805}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{D91D9756-6C36-49DA-A077-FCA129479083}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{4814CE07-C609-429A-B36F-4DB3C32E06D3}"/>
-    <hyperlink ref="H24" r:id="rId10" xr:uid="{D7DB9804-D102-4763-B6A9-47CB650522BC}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{4E10D280-51B2-4BF8-9D7A-DAF605C6AA4F}"/>
-    <hyperlink ref="H15" r:id="rId12" xr:uid="{7AF89C7F-AA9B-4B1F-B062-CC71FA9D49CB}"/>
-    <hyperlink ref="H21" r:id="rId13" xr:uid="{DD997939-82B5-4633-9E08-C43451D8564C}"/>
-    <hyperlink ref="H17" r:id="rId14" xr:uid="{65A9CF54-560F-4602-B64E-F06E4BB37395}"/>
-    <hyperlink ref="H8" r:id="rId15" xr:uid="{C5772049-C219-41A1-BEA3-5C9750D5E3B3}"/>
-    <hyperlink ref="H7" r:id="rId16" xr:uid="{C9F8E0ED-991E-45E4-ACBE-C79CF5C1AAC3}"/>
-    <hyperlink ref="H6" r:id="rId17" xr:uid="{5E6DF59C-CCA9-4CD5-A259-B652171146A7}"/>
-    <hyperlink ref="H10" r:id="rId18" xr:uid="{42956B3F-28D9-4C30-A476-70A79C8F5B8F}"/>
-    <hyperlink ref="H25" r:id="rId19" xr:uid="{130A4A0C-E362-4078-8C86-A20602A559AF}"/>
-    <hyperlink ref="H29" r:id="rId20" xr:uid="{53FEC4B8-C4E6-41BD-8415-50372F320B28}"/>
-    <hyperlink ref="H30" r:id="rId21" xr:uid="{1B5BD5BE-D0BB-41BD-B28A-A4DDF45BF7FC}"/>
-    <hyperlink ref="H31" r:id="rId22" xr:uid="{B52EBCD0-4F25-48A1-977A-C01826A09C82}"/>
-    <hyperlink ref="H18" r:id="rId23" xr:uid="{5763ED74-5BF0-4035-9F7B-3FC9EB9C9084}"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{1EECCC77-7976-48F1-9167-EED137B90327}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{685079B2-926E-4DCD-9BC0-42462FACB129}"/>
+    <hyperlink ref="I14" r:id="rId3" xr:uid="{795BEBB1-FAE3-43C2-8B8C-5DF7AE33C77E}"/>
+    <hyperlink ref="I19" r:id="rId4" xr:uid="{3C74F681-A013-4997-AB53-089D432DE2AE}"/>
+    <hyperlink ref="I20" r:id="rId5" xr:uid="{799B5D9E-68ED-45D8-AAFE-E6B3D7B941F8}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{702076E1-5BF4-4CBF-A727-3AD3F6A4F68E}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{A860EE6D-7ED2-4CDC-8865-29C20650A805}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{D91D9756-6C36-49DA-A077-FCA129479083}"/>
+    <hyperlink ref="I16" r:id="rId9" xr:uid="{4814CE07-C609-429A-B36F-4DB3C32E06D3}"/>
+    <hyperlink ref="I24" r:id="rId10" xr:uid="{D7DB9804-D102-4763-B6A9-47CB650522BC}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{4E10D280-51B2-4BF8-9D7A-DAF605C6AA4F}"/>
+    <hyperlink ref="I15" r:id="rId12" xr:uid="{7AF89C7F-AA9B-4B1F-B062-CC71FA9D49CB}"/>
+    <hyperlink ref="I21" r:id="rId13" xr:uid="{DD997939-82B5-4633-9E08-C43451D8564C}"/>
+    <hyperlink ref="I17" r:id="rId14" xr:uid="{65A9CF54-560F-4602-B64E-F06E4BB37395}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{C5772049-C219-41A1-BEA3-5C9750D5E3B3}"/>
+    <hyperlink ref="I7" r:id="rId16" xr:uid="{C9F8E0ED-991E-45E4-ACBE-C79CF5C1AAC3}"/>
+    <hyperlink ref="I6" r:id="rId17" xr:uid="{5E6DF59C-CCA9-4CD5-A259-B652171146A7}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{42956B3F-28D9-4C30-A476-70A79C8F5B8F}"/>
+    <hyperlink ref="I25" r:id="rId19" xr:uid="{130A4A0C-E362-4078-8C86-A20602A559AF}"/>
+    <hyperlink ref="I30" r:id="rId20" xr:uid="{53FEC4B8-C4E6-41BD-8415-50372F320B28}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{B52EBCD0-4F25-48A1-977A-C01826A09C82}"/>
+    <hyperlink ref="I18" r:id="rId22" xr:uid="{5763ED74-5BF0-4035-9F7B-3FC9EB9C9084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D6215-9EE1-49C2-914E-08742BC1E4A2}">
+  <dimension ref="A2:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="17" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="57" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="57"/>
+    <col min="16" max="16" width="10.7109375" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:15" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="77"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="74"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+    </row>
+    <row r="12" spans="1:15" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="68"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F5:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32162D0-8E1D-46A0-9D9A-1BFE33E54CE6}">
   <dimension ref="B2:C13"/>
   <sheetViews>
@@ -2362,19 +3171,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -2401,10 +3210,10 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -2448,11 +3257,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1117462F-7DC0-4A39-B745-173FB7A12331}">
   <dimension ref="B3:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2467,30 +3276,30 @@
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="S3" s="56" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="S3" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
@@ -2499,26 +3308,26 @@
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -2527,16 +3336,16 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -2545,16 +3354,16 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -2563,67 +3372,62 @@
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="I15" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
+      <c r="I17" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="I19" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="I21" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D11:P11"/>
@@ -2632,17 +3436,22 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D038D82-D5B0-455D-8135-9E8D2F22CF22}">
   <dimension ref="B2:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +3511,7 @@
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>86</v>
@@ -2725,38 +3534,38 @@
       </c>
     </row>
     <row r="3" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="61" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
     </row>
     <row r="4" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -2799,7 +3608,7 @@
         <v>72</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>70</v>
@@ -2914,7 +3723,7 @@
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>80</v>
@@ -2928,7 +3737,7 @@
         <v>130</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y6" s="22"/>
     </row>
@@ -3152,12 +3961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD2849-37DB-49FA-8709-D300E65642AE}">
   <dimension ref="B2:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="T3" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,7 +4027,7 @@
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>86</v>
@@ -3241,43 +4050,43 @@
       </c>
     </row>
     <row r="3" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="61" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
     </row>
     <row r="4" spans="2:28" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -3320,7 +4129,7 @@
         <v>72</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>70</v>
@@ -3353,13 +4162,13 @@
         <v>123</v>
       </c>
       <c r="Z4" s="47" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AA4" s="47" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AB4" s="47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
@@ -3447,7 +4256,7 @@
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>80</v>
@@ -3461,7 +4270,7 @@
         <v>130</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y6" s="22"/>
       <c r="Z6" s="48"/>
@@ -3703,12 +4512,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82188076-37BB-4794-A22C-2543EB8D65FF}">
   <dimension ref="B2:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,16 +4548,16 @@
   <sheetData>
     <row r="2" spans="2:22" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K2" s="33"/>
       <c r="U2" s="33" t="s">
@@ -3757,96 +4566,96 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>170</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P3" s="37" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>65</v>
@@ -3854,31 +4663,31 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R5" s="32" t="s">
         <v>65</v>
@@ -3886,31 +4695,31 @@
     </row>
     <row r="6" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R6" s="32" t="s">
         <v>65</v>
@@ -3918,31 +4727,31 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="I7" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R7" s="32" t="s">
         <v>65</v>
@@ -3950,28 +4759,28 @@
     </row>
     <row r="8" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>179</v>
-      </c>
       <c r="H8" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -3979,7 +4788,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
@@ -3992,28 +4801,28 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>179</v>
-      </c>
       <c r="H9" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -4021,7 +4830,7 @@
         <v>65</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
@@ -4033,31 +4842,31 @@
     </row>
     <row r="10" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="H10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R10" s="32" t="s">
         <v>65</v>
@@ -4065,28 +4874,28 @@
     </row>
     <row r="11" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>203</v>
-      </c>
       <c r="I11" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -4094,7 +4903,7 @@
         <v>65</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -4106,28 +4915,28 @@
     </row>
     <row r="12" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M12" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="R12" s="32" t="s">
         <v>65</v>
@@ -4135,62 +4944,62 @@
     </row>
     <row r="13" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="I13" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G14" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
+++ b/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334BC38-21F0-43AA-8E4F-8EE00123843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD219D8-D87B-492F-AE08-8289E53B601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="0" windowWidth="19950" windowHeight="10800" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="335">
   <si>
     <t>Colaborador</t>
   </si>
@@ -1296,11 +1296,6 @@
 18:15 a 19:10 </t>
   </si>
   <si>
-    <t>Gina Mandujano
-( HYP ) 
-17:00 a 18:00</t>
-  </si>
-  <si>
     <t>Abr - 21</t>
   </si>
   <si>
@@ -1322,12 +1317,6 @@
 - Agendar Citas </t>
   </si>
   <si>
-    <t xml:space="preserve">Liz Mendoza
-( VDQ ) 
-12:00 a 14:00 
-</t>
-  </si>
-  <si>
     <t>Gina Mandujano
 ( HYP )
 08:30 a 10:00 
@@ -1337,17 +1326,6 @@
     <t xml:space="preserve">- Documentar 
 - Seguimientos  ( CALL )
 14:10 a 15:30  </t>
-  </si>
-  <si>
-    <t>Carlos Magueyal 
-( Jefe Taller ) 
-12:00 a ( 14:00 )  14:10 
-- Se comenzo de manera conjunta con Documentacion 
-- Se tuvieron interrupciones (tiempo) considerables imputables  a la Operacion.</t>
-  </si>
-  <si>
-    <t>- Documentar 
-18:30 a 19_</t>
   </si>
   <si>
     <t>Gaby Leones 
@@ -1364,7 +1342,47 @@
 08:30 a 11:30 </t>
   </si>
   <si>
-    <t>- Documentar</t>
+    <t>- Documentar 
+( GIT Push 11:58 )</t>
+  </si>
+  <si>
+    <t>Liz Mendoza
+( VDQ ) 
+12:00 a 14:30 
+Se presentaron algunas interrupciones por temas de la Operacion</t>
+  </si>
+  <si>
+    <t>Carlos Magueyal 
+( Jefe Taller ) 
+12:00 a ( 14:00 )  14:10 
+- Se comenzo de manera conjunta con Documentacion 
+- Se tuvieron interrupciones (tiempo) considerables por temas de la Operacion.</t>
+  </si>
+  <si>
+    <t>- Documentar 
+- Agendar 
+( Se agendo para el proximo Lunes una reunion con una colaboradora que hace Home Office y se encarga de las Asignaciones y Compras (se le conoce como Intercambios)</t>
+  </si>
+  <si>
+    <t>Teresa Navarrete 
+( Intercambios ) 
+15:30 - 17:00</t>
+  </si>
+  <si>
+    <t>Gina Mandujano
+( HYP ) 
+17:00 a 18:00 
+No se presento por temas de Operacion, entregaron un AUTO.
+- Se aprovecho para revisar con Marco Contreras los Avances de su Area incluidos colaboradores y la estrategia de seguimiento para la proxima semana.
+17:20 - 17:50</t>
+  </si>
+  <si>
+    <t>- Documentar 
+18:30 a 18:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Documentar 
+18:00 a </t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1885,18 +1903,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1911,6 +1929,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,7 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D791513-AAFD-400D-99BD-9246005A24E9}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2843,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D6215-9EE1-49C2-914E-08742BC1E4A2}">
   <dimension ref="A2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2854,8 +2875,8 @@
     <col min="3" max="3" width="36.42578125" style="57" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="57" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="17" style="57" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="57" customWidth="1"/>
     <col min="8" max="15" width="9.140625" style="57"/>
     <col min="16" max="16" width="10.7109375" style="57" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="57"/>
@@ -2881,7 +2902,7 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="K3" s="58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
@@ -2896,7 +2917,7 @@
         <v>283</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="56" t="s">
         <v>289</v>
@@ -2937,10 +2958,10 @@
         <v>316</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K5" s="59"/>
     </row>
@@ -2967,7 +2988,7 @@
         <v>304</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F7" s="77"/>
       <c r="K7" s="59"/>
@@ -2981,14 +3002,14 @@
         <v>312</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K8" s="59"/>
     </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="60" t="s">
         <v>278</v>
       </c>
@@ -2997,10 +3018,10 @@
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="77" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K9" s="59"/>
     </row>
@@ -3028,9 +3049,9 @@
       <c r="C11" s="75"/>
       <c r="D11" s="77"/>
       <c r="E11" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="59"/>
+        <v>324</v>
+      </c>
+      <c r="F11" s="74"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
@@ -3052,9 +3073,14 @@
         <v>314</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="68"/>
+        <v>325</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>331</v>
+      </c>
       <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,9 +3093,10 @@
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="68"/>
+      <c r="G13" s="77"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
         <v>285</v>
       </c>
@@ -3079,7 +3106,7 @@
       <c r="D14" s="74"/>
       <c r="E14" s="72"/>
       <c r="F14" s="69" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K14" s="59"/>
     </row>
@@ -3097,7 +3124,9 @@
         <v>318</v>
       </c>
       <c r="E15" s="72"/>
-      <c r="F15" s="59"/>
+      <c r="F15" s="89" t="s">
+        <v>334</v>
+      </c>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -3120,9 +3149,9 @@
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="67"/>
+        <v>333</v>
+      </c>
+      <c r="F16" s="89"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -3134,7 +3163,8 @@
       <c r="O16" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="C12:C13"/>
@@ -3147,8 +3177,9 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3276,30 +3307,30 @@
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="S3" s="82" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="S3" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
@@ -3308,26 +3339,26 @@
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -3336,16 +3367,16 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -3354,16 +3385,16 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -3372,62 +3403,67 @@
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D11:P11"/>
@@ -3436,11 +3472,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
+++ b/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD219D8-D87B-492F-AE08-8289E53B601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4390CB6-8D64-4EBB-B708-2E34BB7E6597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="19950" windowHeight="10800" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="19950" windowHeight="10590" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="345">
   <si>
     <t>Colaborador</t>
   </si>
@@ -1088,9 +1088,6 @@
 R - Revisado</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Se identifico posteriormente que esta persona No esta fisicamente en la Agencia, se verificara con IT que procede para Analizar sus Requerimientos.</t>
   </si>
   <si>
@@ -1278,14 +1275,6 @@
 16:30 a 18:15 </t>
   </si>
   <si>
-    <t xml:space="preserve">Gaby Leones ( Atn Clientes ) 
-08:30 a 10:30
-- Cancelo ayer 19:23
-- Comento que si estara 07:23
-- No Asistio en el horario que se fijo, comento que por INFO de RH que requirieron como Obligatoria.
-- Sesion a las 09:10 a 10:40  </t>
-  </si>
-  <si>
     <t xml:space="preserve">- Documentar
 - Revisar INFO Compartida
 08:15 a 09:15 </t>
@@ -1364,11 +1353,6 @@
 ( Se agendo para el proximo Lunes una reunion con una colaboradora que hace Home Office y se encarga de las Asignaciones y Compras (se le conoce como Intercambios)</t>
   </si>
   <si>
-    <t>Teresa Navarrete 
-( Intercambios ) 
-15:30 - 17:00</t>
-  </si>
-  <si>
     <t>Gina Mandujano
 ( HYP ) 
 17:00 a 18:00 
@@ -1381,8 +1365,75 @@
 18:30 a 18:50</t>
   </si>
   <si>
-    <t xml:space="preserve">- Documentar 
-18:00 a </t>
+    <t>Teresa Navarrete 
+( Intercambios ) 
+15:30 - 17:50</t>
+  </si>
+  <si>
+    <t>- Documentar 
+18:00 a 18:50</t>
+  </si>
+  <si>
+    <t>461 150 0865</t>
+  </si>
+  <si>
+    <t>461 239 4443</t>
+  </si>
+  <si>
+    <t>442 479 2967</t>
+  </si>
+  <si>
+    <t>461 150 0866</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gaby Leones ( Atn Clientes ) 
+08:30 a 10:30
+- Cancelo ayer 19:23
+- Comento que si estara 07:23
+- No Asistio en el horario que se fijo, comento que por INFO de RH que requirieron como Obligatoria.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Sesion a las 09:10 a 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">( Control Similar a un SW Administrador de CALL CENTER, ya mide ciertos criterios, e.g. Llamadas No contestadas ) </t>
+  </si>
+  <si>
+    <t>Dar seguimiento al Cliente de las Actividades de su Vehiculo en tiempo real (ahora lo hacen por Whats APP)</t>
+  </si>
+  <si>
+    <t>Lo hace un colaborador, quieren que sea Automatico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de Datos Extendida, es decir datos varios de las Preferencias de los Clientes. </t>
+  </si>
+  <si>
+    <t>Tablero Fisicos, Manejar este control por Sistema, ahora el seguimiento es manual.</t>
+  </si>
+  <si>
+    <t>No Revision FTO</t>
+  </si>
+  <si>
+    <t>Teresa Naverrete ( Remota )</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,30 +1568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,6 +1679,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1666,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1681,220 +1714,230 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1903,35 +1946,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2248,15 +2294,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D791513-AAFD-400D-99BD-9246005A24E9}">
-  <dimension ref="B2:J31"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
@@ -2269,17 +2315,17 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="33" t="s">
+    <row r="2" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2308,426 +2354,437 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="25" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="I6" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>300</v>
+      <c r="G8" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="21" t="s">
         <v>147</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="I9" s="25" t="s">
+      <c r="G9" s="26"/>
+      <c r="I9" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="I10" s="25" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="68" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="21" t="s">
         <v>133</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="I13" s="25" t="s">
+      <c r="G13" s="26"/>
+      <c r="I13" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="I14" s="25" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="32" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="I16" s="25" t="s">
+      <c r="G16" s="26"/>
+      <c r="I16" s="21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="I17" s="25" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="I20" s="25" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="26"/>
+      <c r="I21" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="I22" s="25" t="s">
+      <c r="G22" s="26"/>
+      <c r="I22" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="I23" s="25" t="s">
+      <c r="G23" s="26"/>
+      <c r="I23" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="I24" s="25" t="s">
+      <c r="G24" s="26"/>
+      <c r="I24" s="21" t="s">
         <v>142</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -2735,59 +2792,59 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="25"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="66" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2799,15 +2856,18 @@
       <c r="F30" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="H30" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="72" t="s">
         <v>160</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2816,13 +2876,13 @@
       <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="26" t="s">
         <v>263</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="21" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2864,303 +2924,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D6215-9EE1-49C2-914E-08742BC1E4A2}">
   <dimension ref="A2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="57" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="57"/>
-    <col min="16" max="16" width="10.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="6.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="48" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="48"/>
+    <col min="16" max="16" width="10.7109375" style="48" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:15" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="81" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="78"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="81"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="K3" s="58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="76" t="s">
+      <c r="C15" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:15" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="F7" s="77"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="77" t="s">
-        <v>329</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="74"/>
-      <c r="K10" s="59"/>
-    </row>
-    <row r="11" spans="1:15" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" spans="1:15" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="65" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="77"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="59"/>
-    </row>
-    <row r="15" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="89" t="s">
-        <v>334</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67" t="s">
-        <v>333</v>
-      </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3192,7 +3252,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,19 +3262,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="83"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -3241,10 +3301,10 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="83"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -3292,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1117462F-7DC0-4A39-B745-173FB7A12331}">
   <dimension ref="B3:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,158 +3364,176 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="82" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="82" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="S3" s="81" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="S3" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="M13" s="69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M14" s="69" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="83" t="s">
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="M15" s="69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="83" t="s">
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="M17" s="69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="83" t="s">
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="M21" s="69" t="s">
+        <v>338</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3481,504 +3559,504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D038D82-D5B0-455D-8135-9E8D2F22CF22}">
   <dimension ref="B2:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="16.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="13" style="11" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="11" customWidth="1"/>
-    <col min="24" max="25" width="24.42578125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="11" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="16.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13" style="8" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="8" customWidth="1"/>
+    <col min="24" max="25" width="24.42578125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="86" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
     </row>
     <row r="4" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:25" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16">
         <v>2</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16">
         <v>2</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="2:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>2</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="2:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16">
         <v>2</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
         <v>2</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3996,540 +4074,540 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD2849-37DB-49FA-8709-D300E65642AE}">
   <dimension ref="B2:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AB3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="16.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="13" style="11" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="11" customWidth="1"/>
-    <col min="24" max="25" width="24.42578125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" style="11" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" style="11" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="16.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13" style="8" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="8" customWidth="1"/>
+    <col min="24" max="25" width="24.42578125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="86" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="88" t="s">
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
     </row>
     <row r="4" spans="2:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="AB4" s="47" t="s">
+      <c r="AB4" s="39" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
     </row>
     <row r="6" spans="2:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
     </row>
     <row r="7" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16">
         <v>2</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
     </row>
     <row r="8" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16">
         <v>2</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>2</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
     </row>
     <row r="10" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16">
         <v>2</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
         <v>2</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4547,30 +4625,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82188076-37BB-4794-A22C-2543EB8D65FF}">
   <dimension ref="B2:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="47.85546875" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="32" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="32" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="32" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="32" customWidth="1"/>
-    <col min="18" max="18" width="8" style="32" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="26" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="26" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="26" customWidth="1"/>
+    <col min="18" max="18" width="8" style="26" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="26" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="4"/>
     <col min="21" max="21" width="11.7109375" style="4" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -4578,458 +4656,458 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="K2" s="27"/>
+      <c r="U2" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="43" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42" t="s">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="26" t="s">
         <v>240</v>
       </c>
     </row>

--- a/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
+++ b/TOYOTA-Celaya/Toyota - CEL - Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4390CB6-8D64-4EBB-B708-2E34BB7E6597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4F24A-AC4B-425A-8946-18DF5B0E8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="19950" windowHeight="10590" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="345" yWindow="210" windowWidth="19950" windowHeight="10590" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="1" r:id="rId1"/>
@@ -1699,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1946,6 +1946,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1961,9 +1964,6 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1978,6 +1978,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2296,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D791513-AAFD-400D-99BD-9246005A24E9}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2847,7 @@
       <c r="J29" s="74"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="95" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2924,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D6215-9EE1-49C2-914E-08742BC1E4A2}">
   <dimension ref="A2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
@@ -3367,30 +3370,30 @@
       <c r="B3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="S3" s="85" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="S3" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -3399,26 +3402,26 @@
       <c r="B5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -3427,16 +3430,16 @@
       <c r="B7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -3445,16 +3448,16 @@
       <c r="B9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -3463,31 +3466,31 @@
       <c r="B11" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
       <c r="M13" s="69" t="s">
         <v>339</v>
       </c>
@@ -3498,50 +3501,45 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
       <c r="M15" s="69" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
       <c r="M17" s="69" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="19" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
       <c r="M19" s="69"/>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
       <c r="M21" s="69" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D11:P11"/>
@@ -3550,6 +3548,11 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
